--- a/Daily Activity/2024/DEC/KT Documentation MAIN/KT Documentation Assiged List.xlsx
+++ b/Daily Activity/2024/DEC/KT Documentation MAIN/KT Documentation Assiged List.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Purchase" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sales" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Inventory" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Integrations" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Integrations and IE" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Integrations!$A$1:$F$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Integrations and IE'!$A$1:$F$30</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Inventory!$A$1:$G$24</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Masters!$A$1:$F$113</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sales!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="307">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -176,6 +175,9 @@
     <t xml:space="preserve">MANAGE ACTIVITY</t>
   </si>
   <si>
+    <t xml:space="preserve">area</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANAGE AREA TERRITORY MAPPING</t>
   </si>
   <si>
@@ -752,6 +754,9 @@
     <t xml:space="preserve">Import Budget Product Group</t>
   </si>
   <si>
+    <t xml:space="preserve">Praveen</t>
+  </si>
+  <si>
     <t xml:space="preserve">IMPORT BUSINESS PARTNER</t>
   </si>
   <si>
@@ -773,10 +778,10 @@
     <t xml:space="preserve">Import Recommended Shipment</t>
   </si>
   <si>
-    <t xml:space="preserve">Praveen</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMPORT SUB ACTIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santhosh</t>
   </si>
   <si>
     <t xml:space="preserve">IMPORT SUB BUDGET</t>
@@ -1048,7 +1053,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,6 +1070,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FFABABAB"/>
       </patternFill>
     </fill>
   </fills>
@@ -1135,7 +1158,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1292,6 +1315,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1332,6 +1363,42 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1350,7 +1417,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1377,6 +1444,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF808080"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1420,7 +1494,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1430,7 +1504,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1456,22 +1530,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.11"/>
@@ -1583,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
@@ -2043,7 +2113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
@@ -2103,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
@@ -2155,18 +2225,18 @@
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>7</v>
@@ -2184,7 +2254,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>7</v>
@@ -2199,12 +2269,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>7</v>
@@ -2222,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>7</v>
@@ -2237,12 +2307,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>7</v>
@@ -2255,12 +2325,12 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>7</v>
@@ -2273,12 +2343,12 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>7</v>
@@ -2296,7 +2366,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>7</v>
@@ -2316,7 +2386,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>7</v>
@@ -2336,7 +2406,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>7</v>
@@ -2351,12 +2421,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>14</v>
@@ -2369,12 +2439,12 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>14</v>
@@ -2392,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>14</v>
@@ -2412,10 +2482,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>8</v>
@@ -2427,12 +2497,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>14</v>
@@ -2450,10 +2520,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>8</v>
@@ -2470,10 +2540,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>8</v>
@@ -2485,12 +2555,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>14</v>
@@ -2508,7 +2578,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>7</v>
@@ -2523,12 +2593,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
@@ -2546,7 +2616,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>7</v>
@@ -2561,12 +2631,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>7</v>
@@ -2579,12 +2649,12 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>7</v>
@@ -2602,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>7</v>
@@ -2611,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>10</v>
@@ -2622,16 +2692,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>10</v>
@@ -2642,7 +2712,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>7</v>
@@ -2651,7 +2721,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>10</v>
@@ -2662,7 +2732,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>7</v>
@@ -2671,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>10</v>
@@ -2682,7 +2752,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>7</v>
@@ -2691,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>10</v>
@@ -2702,7 +2772,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>7</v>
@@ -2711,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>10</v>
@@ -2722,7 +2792,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>14</v>
@@ -2731,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>10</v>
@@ -2742,7 +2812,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>7</v>
@@ -2751,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>10</v>
@@ -2762,7 +2832,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>7</v>
@@ -2771,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>10</v>
@@ -2782,7 +2852,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>7</v>
@@ -2791,7 +2861,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>10</v>
@@ -2802,7 +2872,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>7</v>
@@ -2811,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>10</v>
@@ -2822,7 +2892,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>14</v>
@@ -2831,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>10</v>
@@ -2842,7 +2912,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>7</v>
@@ -2851,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>10</v>
@@ -2862,7 +2932,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>7</v>
@@ -2871,7 +2941,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>10</v>
@@ -2882,7 +2952,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>14</v>
@@ -2891,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>10</v>
@@ -2902,7 +2972,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>14</v>
@@ -2911,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>10</v>
@@ -2922,7 +2992,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>7</v>
@@ -2931,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>10</v>
@@ -2942,7 +3012,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>7</v>
@@ -2951,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>10</v>
@@ -2962,7 +3032,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>7</v>
@@ -2971,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>10</v>
@@ -2982,7 +3052,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>7</v>
@@ -2991,7 +3061,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>10</v>
@@ -3002,7 +3072,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>7</v>
@@ -3011,7 +3081,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>10</v>
@@ -3022,7 +3092,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>7</v>
@@ -3031,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>10</v>
@@ -3042,7 +3112,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>7</v>
@@ -3051,18 +3121,18 @@
         <v>8</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>7</v>
@@ -3071,38 +3141,38 @@
         <v>8</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>7</v>
@@ -3111,18 +3181,18 @@
         <v>8</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>7</v>
@@ -3131,18 +3201,18 @@
         <v>8</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>7</v>
@@ -3151,10 +3221,10 @@
         <v>8</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +3232,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>7</v>
@@ -3171,18 +3241,18 @@
         <v>8</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>7</v>
@@ -3191,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F87" s="6"/>
     </row>
@@ -3200,16 +3270,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>10</v>
@@ -3220,7 +3290,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>7</v>
@@ -3229,7 +3299,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>10</v>
@@ -3240,7 +3310,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>7</v>
@@ -3249,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>10</v>
@@ -3260,7 +3330,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>14</v>
@@ -3269,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>10</v>
@@ -3280,7 +3350,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>7</v>
@@ -3289,7 +3359,7 @@
         <v>8</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>10</v>
@@ -3300,7 +3370,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>7</v>
@@ -3309,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>10</v>
@@ -3320,7 +3390,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>7</v>
@@ -3329,7 +3399,7 @@
         <v>8</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>10</v>
@@ -3340,7 +3410,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>7</v>
@@ -3349,7 +3419,7 @@
         <v>8</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>10</v>
@@ -3360,7 +3430,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>7</v>
@@ -3369,7 +3439,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>10</v>
@@ -3380,7 +3450,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>7</v>
@@ -3389,18 +3459,18 @@
         <v>8</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>7</v>
@@ -3409,7 +3479,7 @@
         <v>8</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F98" s="6"/>
     </row>
@@ -3418,7 +3488,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>7</v>
@@ -3427,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>10</v>
@@ -3438,7 +3508,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>7</v>
@@ -3447,7 +3517,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>10</v>
@@ -3458,7 +3528,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>7</v>
@@ -3467,18 +3537,18 @@
         <v>8</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>7</v>
@@ -3487,16 +3557,16 @@
         <v>8</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>7</v>
@@ -3505,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F103" s="6"/>
     </row>
@@ -3514,7 +3584,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>7</v>
@@ -3523,7 +3593,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>10</v>
@@ -3534,7 +3604,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>7</v>
@@ -3543,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>10</v>
@@ -3554,7 +3624,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>7</v>
@@ -3563,18 +3633,18 @@
         <v>8</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>7</v>
@@ -3583,16 +3653,16 @@
         <v>8</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>7</v>
@@ -3601,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F108" s="6"/>
     </row>
@@ -3610,7 +3680,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>45</v>
@@ -3619,7 +3689,7 @@
         <v>8</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>10</v>
@@ -3630,7 +3700,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>45</v>
@@ -3639,18 +3709,18 @@
         <v>8</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>45</v>
@@ -3659,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F111" s="6"/>
     </row>
@@ -3668,7 +3738,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>7</v>
@@ -3677,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>10</v>
@@ -3688,7 +3758,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>45</v>
@@ -3697,20 +3767,13 @@
         <v>8</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F113">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3718,7 +3781,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3759,10 +3821,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -3776,16 +3838,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>10</v>
@@ -3794,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,16 +3864,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>10</v>
@@ -3820,7 +3882,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,16 +3890,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>10</v>
@@ -3846,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,16 +3916,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>10</v>
@@ -3872,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,16 +3942,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>10</v>
@@ -3898,7 +3960,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,25 +3968,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,25 +3994,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,25 +4020,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,25 +4046,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,25 +4072,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,25 +4098,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,25 +4124,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,25 +4150,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,25 +4176,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,25 +4202,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,16 +4228,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>10</v>
@@ -4184,7 +4246,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,13 +4254,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>10</v>
@@ -4210,7 +4272,7 @@
         <v>42</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,16 +4280,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>10</v>
@@ -4236,7 +4298,7 @@
         <v>42</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,16 +4306,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>10</v>
@@ -4262,7 +4324,7 @@
         <v>42</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,16 +4332,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>10</v>
@@ -4288,7 +4350,7 @@
         <v>42</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,13 +4358,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>10</v>
@@ -4311,10 +4373,10 @@
         <v>10</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,25 +4384,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="H23" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,25 +4410,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,25 +4436,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,13 +4462,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>10</v>
@@ -4415,10 +4477,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4505,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.71"/>
@@ -4469,10 +4531,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4481,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,16 +4551,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>10</v>
@@ -4516,16 +4578,16 @@
         <v>91</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>160</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>10</v>
@@ -4543,16 +4605,16 @@
         <v>98</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>10</v>
@@ -4570,16 +4632,16 @@
         <v>43</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>10</v>
@@ -4597,13 +4659,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>10</v>
@@ -4624,13 +4686,13 @@
         <v>83</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>10</v>
@@ -4651,16 +4713,16 @@
         <v>109</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>10</v>
@@ -4678,16 +4740,16 @@
         <v>35</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>10</v>
@@ -4705,25 +4767,25 @@
         <v>95</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I10" s="26" t="n">
         <v>45652</v>
@@ -4734,25 +4796,25 @@
         <v>94</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I11" s="26" t="n">
         <v>45652</v>
@@ -4763,22 +4825,22 @@
         <v>67</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="n">
@@ -4790,25 +4852,25 @@
         <v>80</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I13" s="26" t="n">
         <v>45652</v>
@@ -4819,25 +4881,25 @@
         <v>79</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I14" s="26" t="n">
         <v>45652</v>
@@ -4848,22 +4910,22 @@
         <v>41</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="26" t="n">
@@ -4875,22 +4937,22 @@
         <v>93</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="26" t="n">
@@ -4902,22 +4964,22 @@
         <v>37</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="26" t="n">
@@ -4929,13 +4991,13 @@
         <v>36</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>10</v>
@@ -4944,7 +5006,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="26" t="n">
@@ -4956,13 +5018,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>10</v>
@@ -4971,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="26" t="n">
@@ -4983,25 +5045,25 @@
         <v>73</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I20" s="26" t="n">
         <v>45652</v>
@@ -5012,22 +5074,22 @@
         <v>39</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="26" t="n">
@@ -5039,22 +5101,22 @@
         <v>110</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="26" t="n">
@@ -5066,25 +5128,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I23" s="26" t="n">
         <v>45652</v>
@@ -5095,25 +5157,25 @@
         <v>48</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I24" s="26" t="n">
         <v>45652</v>
@@ -5124,25 +5186,25 @@
         <v>100</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I25" s="26" t="n">
         <v>45652</v>
@@ -5153,22 +5215,22 @@
         <v>34</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="26" t="n">
@@ -5180,22 +5242,22 @@
         <v>45</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="26" t="n">
@@ -5207,13 +5269,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>10</v>
@@ -5222,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="26" t="n">
@@ -5234,22 +5296,22 @@
         <v>99</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="26" t="n">
@@ -5261,22 +5323,22 @@
         <v>97</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="26" t="n">
@@ -5288,22 +5350,22 @@
         <v>89</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="26" t="n">
@@ -5315,22 +5377,22 @@
         <v>87</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="26" t="n">
@@ -5342,22 +5404,22 @@
         <v>86</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="26" t="n">
@@ -5369,16 +5431,16 @@
         <v>42</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>10</v>
@@ -5387,7 +5449,7 @@
         <v>42</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I34" s="26" t="n">
         <v>45652</v>
@@ -5398,13 +5460,13 @@
         <v>101</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>10</v>
@@ -5425,16 +5487,16 @@
         <v>96</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>10</v>
@@ -5443,7 +5505,7 @@
         <v>42</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I36" s="26" t="n">
         <v>45652</v>
@@ -5454,16 +5516,16 @@
         <v>81</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>10</v>
@@ -5472,7 +5534,7 @@
         <v>42</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I37" s="26" t="n">
         <v>45652</v>
@@ -5483,13 +5545,13 @@
         <v>102</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>10</v>
@@ -5510,16 +5572,16 @@
         <v>88</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>10</v>
@@ -5528,7 +5590,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I39" s="26" t="n">
         <v>45652</v>
@@ -5539,16 +5601,16 @@
         <v>103</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>10</v>
@@ -5557,7 +5619,7 @@
         <v>42</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I40" s="26" t="n">
         <v>45652</v>
@@ -5568,16 +5630,16 @@
         <v>104</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>10</v>
@@ -5595,16 +5657,16 @@
         <v>105</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>10</v>
@@ -5638,10 +5700,10 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.91"/>
@@ -5677,16 +5739,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -5695,16 +5757,16 @@
         <v>11</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>203</v>
-      </c>
       <c r="E3" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -5713,16 +5775,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -5731,16 +5793,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -5749,16 +5811,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -5767,13 +5829,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>9</v>
@@ -5785,13 +5847,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>9</v>
@@ -5803,13 +5865,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>9</v>
@@ -5821,13 +5883,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>9</v>
@@ -5839,13 +5901,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>9</v>
@@ -5857,19 +5919,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,19 +5939,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,19 +5959,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,19 +5979,19 @@
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,19 +5999,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,16 +6019,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -5975,16 +6037,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -5993,16 +6055,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -6011,16 +6073,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -6029,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>42</v>
@@ -6047,13 +6109,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>42</v>
@@ -6065,13 +6127,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>42</v>
@@ -6083,13 +6145,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>42</v>
@@ -6117,10 +6179,10 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.58"/>
@@ -6156,16 +6218,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" s="37"/>
     </row>
@@ -6174,16 +6236,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F3" s="37"/>
     </row>
@@ -6192,16 +6254,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F4" s="37"/>
     </row>
@@ -6210,16 +6272,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F5" s="37"/>
     </row>
@@ -6228,16 +6290,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F6" s="37"/>
     </row>
@@ -6246,16 +6308,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="37"/>
     </row>
@@ -6264,34 +6326,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="37"/>
+        <v>236</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F9" s="37"/>
     </row>
@@ -6300,34 +6364,36 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="37"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>239</v>
+      <c r="B11" s="40" t="s">
+        <v>240</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F11" s="37"/>
     </row>
@@ -6335,17 +6401,17 @@
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>240</v>
+      <c r="B12" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F12" s="37"/>
     </row>
@@ -6353,17 +6419,17 @@
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>242</v>
+      <c r="B13" s="41" t="s">
+        <v>244</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F13" s="37"/>
     </row>
@@ -6372,16 +6438,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F14" s="37"/>
     </row>
@@ -6390,16 +6456,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F15" s="37"/>
     </row>
@@ -6408,16 +6474,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F16" s="37"/>
     </row>
@@ -6425,35 +6491,35 @@
       <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>246</v>
+      <c r="B17" s="42" t="s">
+        <v>248</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F18" s="37"/>
     </row>
@@ -6461,17 +6527,17 @@
       <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>249</v>
+      <c r="B19" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F19" s="37"/>
     </row>
@@ -6480,16 +6546,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F20" s="37"/>
     </row>
@@ -6497,17 +6563,17 @@
       <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="42" t="s">
+      <c r="B21" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F21" s="37"/>
     </row>
@@ -6515,17 +6581,17 @@
       <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F22" s="37"/>
     </row>
@@ -6534,16 +6600,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F23" s="37"/>
     </row>
@@ -6551,17 +6617,17 @@
       <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F24" s="37"/>
     </row>
@@ -6569,17 +6635,17 @@
       <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>256</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>254</v>
       </c>
       <c r="F25" s="37"/>
     </row>
@@ -6588,16 +6654,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F26" s="37"/>
     </row>
@@ -6605,17 +6671,17 @@
       <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>258</v>
+      <c r="B27" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>259</v>
+      <c r="D27" s="46" t="s">
+        <v>261</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F27" s="37"/>
     </row>
@@ -6624,16 +6690,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>263</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F28" s="37"/>
     </row>
@@ -6641,17 +6707,17 @@
       <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>261</v>
+      <c r="B29" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>263</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F29" s="37"/>
     </row>
@@ -6659,23 +6725,23 @@
       <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>263</v>
+      <c r="B30" s="41" t="s">
+        <v>265</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="39"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
@@ -6683,17 +6749,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="46"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="B33" s="47"/>
+      <c r="A33" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="49"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="37"/>
@@ -6704,16 +6770,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F34" s="37"/>
     </row>
@@ -6722,16 +6788,16 @@
         <v>2</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F35" s="37"/>
     </row>
@@ -6740,16 +6806,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F36" s="37"/>
     </row>
@@ -6757,17 +6823,17 @@
       <c r="A37" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>269</v>
+      <c r="B37" s="41" t="s">
+        <v>271</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F37" s="37"/>
     </row>
@@ -6775,17 +6841,17 @@
       <c r="A38" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>270</v>
+      <c r="B38" s="41" t="s">
+        <v>272</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F38" s="37"/>
     </row>
@@ -6794,16 +6860,16 @@
         <v>6</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F39" s="37"/>
     </row>
@@ -6811,17 +6877,17 @@
       <c r="A40" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>272</v>
+      <c r="B40" s="41" t="s">
+        <v>274</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F40" s="37"/>
     </row>
@@ -6829,17 +6895,17 @@
       <c r="A41" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>273</v>
+      <c r="B41" s="50" t="s">
+        <v>275</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F41" s="37"/>
     </row>
@@ -6847,17 +6913,17 @@
       <c r="A42" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>274</v>
+      <c r="B42" s="41" t="s">
+        <v>276</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F42" s="37"/>
     </row>
@@ -6865,17 +6931,17 @@
       <c r="A43" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>275</v>
+      <c r="B43" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F43" s="37"/>
     </row>
@@ -6883,17 +6949,17 @@
       <c r="A44" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>276</v>
+      <c r="B44" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F44" s="37"/>
     </row>
@@ -6902,16 +6968,16 @@
         <v>12</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F45" s="37"/>
     </row>
@@ -6920,16 +6986,16 @@
         <v>13</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F46" s="37"/>
     </row>
@@ -6938,16 +7004,16 @@
         <v>14</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F47" s="37"/>
     </row>
@@ -6955,17 +7021,17 @@
       <c r="A48" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>280</v>
+      <c r="B48" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F48" s="37"/>
     </row>
@@ -6973,17 +7039,17 @@
       <c r="A49" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>281</v>
+      <c r="B49" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F49" s="37"/>
     </row>
@@ -6992,16 +7058,16 @@
         <v>17</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F50" s="37"/>
     </row>
@@ -7010,16 +7076,16 @@
         <v>18</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F51" s="37"/>
     </row>
@@ -7028,16 +7094,16 @@
         <v>19</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F52" s="37"/>
     </row>
@@ -7046,16 +7112,16 @@
         <v>20</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F53" s="37"/>
     </row>
@@ -7064,160 +7130,162 @@
         <v>21</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F54" s="37"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="51" t="n">
         <v>22</v>
       </c>
-      <c r="B55" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F55" s="37"/>
+      <c r="D55" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="54"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>288</v>
+      <c r="B56" s="56" t="s">
+        <v>290</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F56" s="37"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="57" t="n">
         <v>24</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F57" s="37"/>
+      <c r="B57" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="54"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
         <v>25</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="37"/>
+        <v>236</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F59" s="37"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="57" t="n">
         <v>27</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F60" s="37"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="D60" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" s="54"/>
+    </row>
+    <row r="61" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="57" t="n">
         <v>28</v>
       </c>
-      <c r="B61" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F61" s="37"/>
+      <c r="D61" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" s="54"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B62" s="39" t="s">
-        <v>294</v>
+      <c r="B62" s="41" t="s">
+        <v>296</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F62" s="37"/>
     </row>
@@ -7225,17 +7293,17 @@
       <c r="A63" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B63" s="39" t="s">
-        <v>295</v>
+      <c r="B63" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F63" s="37"/>
     </row>
@@ -7243,17 +7311,17 @@
       <c r="A64" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B64" s="41" t="s">
-        <v>296</v>
+      <c r="B64" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F64" s="37"/>
     </row>
@@ -7262,16 +7330,16 @@
         <v>32</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F65" s="37"/>
     </row>
@@ -7280,16 +7348,16 @@
         <v>33</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F66" s="37"/>
     </row>
@@ -7297,17 +7365,17 @@
       <c r="A67" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>299</v>
+      <c r="B67" s="42" t="s">
+        <v>301</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F67" s="37"/>
     </row>
@@ -7316,16 +7384,16 @@
         <v>35</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F68" s="37"/>
     </row>
@@ -7334,16 +7402,16 @@
         <v>36</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F69" s="37"/>
     </row>
@@ -7351,17 +7419,17 @@
       <c r="A70" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B70" s="49" t="s">
-        <v>302</v>
+      <c r="B70" s="60" t="s">
+        <v>304</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F70" s="37"/>
     </row>
@@ -7369,22 +7437,22 @@
       <c r="A71" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B71" s="50" t="s">
-        <v>304</v>
+      <c r="B71" s="61" t="s">
+        <v>306</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F71" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F71">
+  <autoFilter ref="A1:F30">
     <filterColumn colId="4">
       <filters>
         <filter val="Santhosh"/>
